--- a/5-Njësite-banesore/regjistri/Koordinatat.xlsx
+++ b/5-Njësite-banesore/regjistri/Koordinatat.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="16">
   <si>
     <t>Y</t>
   </si>
@@ -208,6 +208,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -218,9 +221,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -505,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:G10"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D43" sqref="B40:G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,7 +758,7 @@
       <c r="F31" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="13" t="s">
+      <c r="G31" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -778,7 +778,7 @@
       <c r="F32" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="14"/>
+      <c r="G32" s="15"/>
     </row>
     <row r="33" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="6">
@@ -796,7 +796,7 @@
       <c r="F33" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G33" s="14"/>
+      <c r="G33" s="15"/>
     </row>
     <row r="34" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6">
@@ -814,7 +814,7 @@
       <c r="F34" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G34" s="14"/>
+      <c r="G34" s="15"/>
     </row>
     <row r="35" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="6">
@@ -832,7 +832,7 @@
       <c r="F35" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="14"/>
+      <c r="G35" s="15"/>
     </row>
     <row r="36" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="6">
@@ -850,7 +850,7 @@
       <c r="F36" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G36" s="14"/>
+      <c r="G36" s="15"/>
     </row>
     <row r="37" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="6">
@@ -868,7 +868,7 @@
       <c r="F37" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G37" s="14"/>
+      <c r="G37" s="15"/>
     </row>
     <row r="38" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6">
@@ -886,7 +886,7 @@
       <c r="F38" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G38" s="15"/>
+      <c r="G38" s="16"/>
     </row>
     <row r="39" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
@@ -913,149 +913,370 @@
     </row>
     <row r="41" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C41" s="1">
-        <v>7512361.9994000001</v>
+        <v>7511885.301</v>
       </c>
       <c r="D41" s="9">
-        <v>4691994.5690000001</v>
+        <v>4692113.6940000001</v>
       </c>
       <c r="E41" s="9">
-        <v>618.30200000000002</v>
+        <v>619.59</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G41" s="16" t="s">
+      <c r="G41" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="42" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="6">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C42" s="1">
-        <v>7512364.7248999998</v>
+        <v>7511886.2280000001</v>
       </c>
       <c r="D42" s="9">
-        <v>4691999.8749000002</v>
+        <v>4692123.8839999996</v>
       </c>
       <c r="E42" s="9">
-        <v>618.30200000000002</v>
+        <v>622.34799999999996</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G42" s="16"/>
+      <c r="G42" s="15"/>
     </row>
     <row r="43" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="6">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C43" s="1">
-        <v>7512354.0060000001</v>
+        <v>7511876.3559999997</v>
       </c>
       <c r="D43" s="9">
-        <v>4692006.9979999997</v>
+        <v>4692124.8080000002</v>
       </c>
       <c r="E43" s="9">
-        <v>618.30200000000002</v>
+        <v>619.56399999999996</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G43" s="16"/>
+      <c r="G43" s="15"/>
     </row>
     <row r="44" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="6">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C44" s="1">
-        <v>7512351.0539999995</v>
+        <v>7511876.2089999998</v>
       </c>
       <c r="D44" s="9">
-        <v>4692001.9529999997</v>
+        <v>4692123.2970000003</v>
       </c>
       <c r="E44" s="9">
-        <v>618.30200000000002</v>
+        <v>619.58000000000004</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G44" s="16"/>
+      <c r="G44" s="15"/>
     </row>
     <row r="45" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="6">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C45" s="1">
-        <v>7512362.3361</v>
+        <v>7511876.8300000001</v>
       </c>
       <c r="D45" s="9">
-        <v>4691994.7106999997</v>
+        <v>4692123.2389000002</v>
       </c>
       <c r="E45" s="9">
-        <v>618.30200000000002</v>
+        <v>619.59</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G45" s="16"/>
+      <c r="G45" s="15"/>
     </row>
     <row r="46" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="6">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C46" s="1">
-        <v>7512364.5429999996</v>
+        <v>7511876.6040000003</v>
       </c>
       <c r="D46" s="9">
-        <v>4691997.023</v>
+        <v>4692121.0130000003</v>
       </c>
       <c r="E46" s="9">
-        <v>618.30200000000002</v>
+        <v>622.46600000000001</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G46" s="16"/>
+      <c r="G46" s="15"/>
     </row>
     <row r="47" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="6">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C47" s="1">
-        <v>7512364.8229999999</v>
+        <v>7511875.7060000002</v>
       </c>
       <c r="D47" s="9">
-        <v>4691999.5039999997</v>
+        <v>4692121.091</v>
       </c>
       <c r="E47" s="9">
-        <v>618.30200000000002</v>
+        <v>619.57500000000005</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G47" s="16"/>
-    </row>
-    <row r="48" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="G47" s="15"/>
+    </row>
+    <row r="48" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="12">
+        <v>36</v>
+      </c>
+      <c r="C48" s="1">
+        <v>7511875.1720000003</v>
+      </c>
+      <c r="D48" s="9">
+        <v>4692120.2690000003</v>
+      </c>
+      <c r="E48" s="9">
+        <v>619.58600000000001</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="15"/>
+    </row>
+    <row r="49" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="12">
+        <v>37</v>
+      </c>
+      <c r="C49" s="1">
+        <v>7511875.0939999996</v>
+      </c>
+      <c r="D49" s="9">
+        <v>4692119.3109999998</v>
+      </c>
+      <c r="E49" s="9">
+        <v>619.58399999999995</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="15"/>
+    </row>
+    <row r="50" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="12">
+        <v>38</v>
+      </c>
+      <c r="C50" s="1">
+        <v>7511875.4614000004</v>
+      </c>
+      <c r="D50" s="9">
+        <v>4692118.3782000002</v>
+      </c>
+      <c r="E50" s="9">
+        <v>619.59</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="15"/>
+    </row>
+    <row r="51" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="12">
+        <v>39</v>
+      </c>
+      <c r="C51" s="1">
+        <v>7511876.3606000002</v>
+      </c>
+      <c r="D51" s="9">
+        <v>4692118.2939999998</v>
+      </c>
+      <c r="E51" s="9">
+        <v>619.59</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="15"/>
+    </row>
+    <row r="52" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="12">
+        <v>41</v>
+      </c>
+      <c r="C52" s="1">
+        <v>7511876.1749999998</v>
+      </c>
+      <c r="D52" s="9">
+        <v>4692116.0829999996</v>
+      </c>
+      <c r="E52" s="9">
+        <v>621.16300000000001</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="15"/>
+    </row>
+    <row r="53" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="12">
+        <v>42</v>
+      </c>
+      <c r="C53" s="1">
+        <v>7511875.5580000002</v>
+      </c>
+      <c r="D53" s="9">
+        <v>4692116.1270000003</v>
+      </c>
+      <c r="E53" s="9">
+        <v>619.577</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="15"/>
+    </row>
+    <row r="54" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="12">
+        <v>43</v>
+      </c>
+      <c r="C54" s="1">
+        <v>7511875.4289999995</v>
+      </c>
+      <c r="D54" s="9">
+        <v>4692114.6179999998</v>
+      </c>
+      <c r="E54" s="9">
+        <v>619.59</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="15"/>
+    </row>
+    <row r="55" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="12">
+        <v>44</v>
+      </c>
+      <c r="C55" s="1">
+        <v>7511875.6360999998</v>
+      </c>
+      <c r="D55" s="9">
+        <v>4692116.1213999996</v>
+      </c>
+      <c r="E55" s="9">
+        <v>619.59</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="15"/>
+    </row>
+    <row r="56" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="12">
+        <v>45</v>
+      </c>
+      <c r="C56" s="1">
+        <v>7511875.5</v>
+      </c>
+      <c r="D56" s="9">
+        <v>4692117.2120000003</v>
+      </c>
+      <c r="E56" s="9">
+        <v>619.58399999999995</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="15"/>
+    </row>
+    <row r="57" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="12">
+        <v>46</v>
+      </c>
+      <c r="C57" s="1">
+        <v>7511875.5099999998</v>
+      </c>
+      <c r="D57" s="9">
+        <v>4692118.3735999996</v>
+      </c>
+      <c r="E57" s="9">
+        <v>619.59</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="15"/>
+    </row>
+    <row r="58" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="12">
+        <v>47</v>
+      </c>
+      <c r="C58" s="1">
+        <v>7511875.7685000002</v>
+      </c>
+      <c r="D58" s="9">
+        <v>4692121.0855999999</v>
+      </c>
+      <c r="E58" s="9">
+        <v>619.59</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="15"/>
+    </row>
+    <row r="59" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="12">
+        <v>48</v>
+      </c>
+      <c r="C59" s="1">
+        <v>7511875.8830000004</v>
+      </c>
+      <c r="D59" s="9">
+        <v>4692121.8990000002</v>
+      </c>
+      <c r="E59" s="9">
+        <v>619.577</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="15"/>
+    </row>
+    <row r="60" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="12">
+        <v>49</v>
+      </c>
+      <c r="C60" s="1">
+        <v>7511876.3048999999</v>
+      </c>
+      <c r="D60" s="9">
+        <v>4692123.2879999997</v>
+      </c>
+      <c r="E60" s="9">
+        <v>619.59</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="16"/>
+    </row>
+    <row r="61" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="65" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="66" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="67" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1129,35 +1350,35 @@
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B126" s="12" t="s">
+      <c r="B126" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C126" s="12">
+      <c r="C126" s="13">
         <v>54.68</v>
       </c>
-      <c r="D126" s="12" t="s">
+      <c r="D126" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B127" s="12"/>
-      <c r="C127" s="12"/>
-      <c r="D127" s="12"/>
+      <c r="B127" s="13"/>
+      <c r="C127" s="13"/>
+      <c r="D127" s="13"/>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B128" s="12"/>
-      <c r="C128" s="12"/>
-      <c r="D128" s="12"/>
+      <c r="B128" s="13"/>
+      <c r="C128" s="13"/>
+      <c r="D128" s="13"/>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B129" s="12"/>
-      <c r="C129" s="12"/>
-      <c r="D129" s="12"/>
+      <c r="B129" s="13"/>
+      <c r="C129" s="13"/>
+      <c r="D129" s="13"/>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B130" s="12"/>
-      <c r="C130" s="12"/>
-      <c r="D130" s="12"/>
+      <c r="B130" s="13"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1165,7 +1386,7 @@
     <mergeCell ref="C126:C130"/>
     <mergeCell ref="D126:D130"/>
     <mergeCell ref="G31:G38"/>
-    <mergeCell ref="G41:G47"/>
+    <mergeCell ref="G41:G60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/5-Njësite-banesore/regjistri/Koordinatat.xlsx
+++ b/5-Njësite-banesore/regjistri/Koordinatat.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="16">
   <si>
     <t>Y</t>
   </si>
@@ -503,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G130"/>
+  <dimension ref="B1:G118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D43" sqref="B40:G60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B12:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,76 +704,354 @@
       </c>
     </row>
     <row r="11" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:7" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="6">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1">
+        <v>7511877.2290000003</v>
+      </c>
+      <c r="D13" s="9">
+        <v>4692127.6189999999</v>
+      </c>
+      <c r="E13" s="9">
+        <v>616.5</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="6">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
+        <v>7511876.9670000002</v>
+      </c>
+      <c r="D14" s="9">
+        <v>4692124.6979999999</v>
+      </c>
+      <c r="E14" s="9">
+        <v>616.56600000000003</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="6">
+        <v>25</v>
+      </c>
+      <c r="C15" s="9">
+        <v>7511876.0319999997</v>
+      </c>
+      <c r="D15" s="9">
+        <v>4692114.5669999998</v>
+      </c>
+      <c r="E15" s="9">
+        <v>618.98800000000006</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="6">
+        <v>27</v>
+      </c>
+      <c r="C16" s="9">
+        <v>7511886.2280000001</v>
+      </c>
+      <c r="D16" s="9">
+        <v>4692123.8839999996</v>
+      </c>
+      <c r="E16" s="9">
+        <v>622.34799999999996</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="6">
+        <v>56</v>
+      </c>
+      <c r="C17" s="9">
+        <v>7511886.4900000002</v>
+      </c>
+      <c r="D17" s="9">
+        <v>4692126.8049999997</v>
+      </c>
+      <c r="E17" s="9">
+        <v>622.34799999999996</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="6">
+        <v>57</v>
+      </c>
+      <c r="C18" s="9">
+        <v>7511885.2929999996</v>
+      </c>
+      <c r="D18" s="9">
+        <v>4692113.68</v>
+      </c>
+      <c r="E18" s="9">
+        <v>622.34799999999996</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="6">
+        <v>18</v>
+      </c>
+      <c r="C19" s="9">
+        <v>7511874.3169999998</v>
+      </c>
+      <c r="D19" s="9">
+        <v>4692118.7989999996</v>
+      </c>
+      <c r="E19" s="9">
+        <v>616.50599999999997</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="6">
+        <v>19</v>
+      </c>
+      <c r="C20" s="9">
+        <v>7511873.3849999998</v>
+      </c>
+      <c r="D20" s="9">
+        <v>4692117.3899999997</v>
+      </c>
+      <c r="E20" s="9">
+        <v>616.40700000000004</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="12">
+        <v>20</v>
+      </c>
+      <c r="C21" s="9">
+        <v>7511874.233</v>
+      </c>
+      <c r="D21" s="9">
+        <v>4692115.148</v>
+      </c>
+      <c r="E21" s="9">
+        <v>616.375</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="15"/>
+    </row>
+    <row r="22" spans="2:7" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="12">
+        <v>15</v>
+      </c>
+      <c r="C22" s="9">
+        <v>7511876.7088000001</v>
+      </c>
+      <c r="D22" s="9">
+        <v>4692121.8803000003</v>
+      </c>
+      <c r="E22" s="9">
+        <v>616.5</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="12">
+        <v>16</v>
+      </c>
+      <c r="C23" s="9">
+        <v>7511874.8679999998</v>
+      </c>
+      <c r="D23" s="9">
+        <v>4692122.074</v>
+      </c>
+      <c r="E23" s="9">
+        <v>616.5</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="15"/>
+    </row>
+    <row r="24" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="12">
+        <v>17</v>
+      </c>
+      <c r="C24" s="9">
+        <v>7511874.585</v>
+      </c>
+      <c r="D24" s="9">
+        <v>4692118.9589999998</v>
+      </c>
+      <c r="E24" s="9">
+        <v>616.50300000000004</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="15"/>
+    </row>
+    <row r="25" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="12">
+        <v>55</v>
+      </c>
+      <c r="C25" s="9">
+        <v>7511876.4255999997</v>
+      </c>
+      <c r="D25" s="9">
+        <v>4692118.7890999997</v>
+      </c>
+      <c r="E25" s="9">
+        <v>616.5</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="16"/>
+    </row>
     <row r="26" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+    </row>
+    <row r="28" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="6">
+        <v>7</v>
+      </c>
+      <c r="C29" s="1">
+        <v>7511885.301</v>
+      </c>
+      <c r="D29" s="9">
+        <v>4692113.6940000001</v>
+      </c>
+      <c r="E29" s="9">
+        <v>619.59</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="30" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B30" s="6">
+        <v>28</v>
+      </c>
+      <c r="C30" s="1">
+        <v>7511886.2280000001</v>
+      </c>
+      <c r="D30" s="9">
+        <v>4692123.8839999996</v>
+      </c>
+      <c r="E30" s="9">
+        <v>622.34799999999996</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="15"/>
     </row>
     <row r="31" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="6">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C31" s="1">
-        <v>7512361.9994000001</v>
+        <v>7511876.3559999997</v>
       </c>
       <c r="D31" s="9">
-        <v>4691994.5690000001</v>
+        <v>4692124.8080000002</v>
       </c>
       <c r="E31" s="9">
-        <v>615.27800000000002</v>
+        <v>619.56399999999996</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="14" t="s">
-        <v>14</v>
-      </c>
+      <c r="G31" s="15"/>
     </row>
     <row r="32" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="6">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C32" s="1">
-        <v>7512364.7248999998</v>
+        <v>7511876.2089999998</v>
       </c>
       <c r="D32" s="9">
-        <v>4691999.8749000002</v>
+        <v>4692123.2970000003</v>
       </c>
       <c r="E32" s="9">
-        <v>615.27800000000002</v>
+        <v>619.58000000000004</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>11</v>
@@ -782,16 +1060,16 @@
     </row>
     <row r="33" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="6">
-        <v>47</v>
-      </c>
-      <c r="C33" s="9">
-        <v>7512352.3052000003</v>
+        <v>33</v>
+      </c>
+      <c r="C33" s="1">
+        <v>7511876.8300000001</v>
       </c>
       <c r="D33" s="9">
-        <v>4692001.1089000003</v>
+        <v>4692123.2389000002</v>
       </c>
       <c r="E33" s="9">
-        <v>615.27800000000002</v>
+        <v>619.59</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>11</v>
@@ -800,16 +1078,16 @@
     </row>
     <row r="34" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6">
-        <v>49</v>
-      </c>
-      <c r="C34" s="9">
-        <v>7512355.2740000002</v>
+        <v>34</v>
+      </c>
+      <c r="C34" s="1">
+        <v>7511876.6040000003</v>
       </c>
       <c r="D34" s="9">
-        <v>4692006.16</v>
+        <v>4692121.0130000003</v>
       </c>
       <c r="E34" s="9">
-        <v>615.27800000000002</v>
+        <v>622.46600000000001</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>11</v>
@@ -818,501 +1096,308 @@
     </row>
     <row r="35" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="6">
+        <v>35</v>
+      </c>
+      <c r="C35" s="1">
+        <v>7511875.7060000002</v>
+      </c>
+      <c r="D35" s="9">
+        <v>4692121.091</v>
+      </c>
+      <c r="E35" s="9">
+        <v>619.57500000000005</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="15"/>
+    </row>
+    <row r="36" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="12">
+        <v>36</v>
+      </c>
+      <c r="C36" s="1">
+        <v>7511875.1720000003</v>
+      </c>
+      <c r="D36" s="9">
+        <v>4692120.2690000003</v>
+      </c>
+      <c r="E36" s="9">
+        <v>619.58600000000001</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="15"/>
+    </row>
+    <row r="37" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="12">
+        <v>37</v>
+      </c>
+      <c r="C37" s="1">
+        <v>7511875.0939999996</v>
+      </c>
+      <c r="D37" s="9">
+        <v>4692119.3109999998</v>
+      </c>
+      <c r="E37" s="9">
+        <v>619.58399999999995</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="15"/>
+    </row>
+    <row r="38" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="12">
         <v>38</v>
       </c>
-      <c r="C35" s="9">
-        <v>7512354.1168999998</v>
-      </c>
-      <c r="D35" s="9">
-        <v>4692006.9072000002</v>
-      </c>
-      <c r="E35" s="9">
-        <v>615.27800000000002</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="15"/>
-    </row>
-    <row r="36" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="6">
+      <c r="C38" s="1">
+        <v>7511875.4614000004</v>
+      </c>
+      <c r="D38" s="9">
+        <v>4692118.3782000002</v>
+      </c>
+      <c r="E38" s="9">
+        <v>619.59</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="15"/>
+    </row>
+    <row r="39" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="12">
         <v>39</v>
       </c>
-      <c r="C36" s="9">
-        <v>7512353.1699999999</v>
-      </c>
-      <c r="D36" s="9">
-        <v>4692005.4409999996</v>
-      </c>
-      <c r="E36" s="9">
-        <v>615.27800000000002</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="15"/>
-    </row>
-    <row r="37" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="6">
+      <c r="C39" s="1">
+        <v>7511876.3606000002</v>
+      </c>
+      <c r="D39" s="9">
+        <v>4692118.2939999998</v>
+      </c>
+      <c r="E39" s="9">
+        <v>619.59</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="15"/>
+    </row>
+    <row r="40" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="12">
         <v>41</v>
       </c>
-      <c r="C37" s="9">
-        <v>7512350.5369999995</v>
-      </c>
-      <c r="D37" s="9">
-        <v>4692001.9800000004</v>
-      </c>
-      <c r="E37" s="9">
-        <v>615.27800000000002</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="15"/>
-    </row>
-    <row r="38" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="6">
+      <c r="C40" s="1">
+        <v>7511876.1749999998</v>
+      </c>
+      <c r="D40" s="9">
+        <v>4692116.0829999996</v>
+      </c>
+      <c r="E40" s="9">
+        <v>621.16300000000001</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="15"/>
+    </row>
+    <row r="41" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="12">
         <v>42</v>
       </c>
-      <c r="C38" s="9">
-        <v>7512352.2280000001</v>
-      </c>
-      <c r="D38" s="9">
-        <v>4692000.9770999998</v>
-      </c>
-      <c r="E38" s="9">
-        <v>615.27800000000002</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" s="16"/>
-    </row>
-    <row r="39" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="5"/>
-    </row>
-    <row r="40" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="6">
-        <v>7</v>
-      </c>
       <c r="C41" s="1">
-        <v>7511885.301</v>
+        <v>7511875.5580000002</v>
       </c>
       <c r="D41" s="9">
-        <v>4692113.6940000001</v>
+        <v>4692116.1270000003</v>
       </c>
       <c r="E41" s="9">
+        <v>619.577</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="15"/>
+    </row>
+    <row r="42" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="12">
+        <v>43</v>
+      </c>
+      <c r="C42" s="1">
+        <v>7511875.4289999995</v>
+      </c>
+      <c r="D42" s="9">
+        <v>4692114.6179999998</v>
+      </c>
+      <c r="E42" s="9">
         <v>619.59</v>
       </c>
-      <c r="F41" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="6">
-        <v>28</v>
-      </c>
-      <c r="C42" s="1">
-        <v>7511886.2280000001</v>
-      </c>
-      <c r="D42" s="9">
-        <v>4692123.8839999996</v>
-      </c>
-      <c r="E42" s="9">
-        <v>622.34799999999996</v>
-      </c>
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="12" t="s">
         <v>11</v>
       </c>
       <c r="G42" s="15"/>
     </row>
     <row r="43" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="6">
-        <v>31</v>
+      <c r="B43" s="12">
+        <v>44</v>
       </c>
       <c r="C43" s="1">
-        <v>7511876.3559999997</v>
+        <v>7511875.6360999998</v>
       </c>
       <c r="D43" s="9">
-        <v>4692124.8080000002</v>
+        <v>4692116.1213999996</v>
       </c>
       <c r="E43" s="9">
-        <v>619.56399999999996</v>
-      </c>
-      <c r="F43" s="6" t="s">
+        <v>619.59</v>
+      </c>
+      <c r="F43" s="12" t="s">
         <v>11</v>
       </c>
       <c r="G43" s="15"/>
     </row>
     <row r="44" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="6">
-        <v>32</v>
+      <c r="B44" s="12">
+        <v>45</v>
       </c>
       <c r="C44" s="1">
-        <v>7511876.2089999998</v>
+        <v>7511875.5</v>
       </c>
       <c r="D44" s="9">
-        <v>4692123.2970000003</v>
+        <v>4692117.2120000003</v>
       </c>
       <c r="E44" s="9">
-        <v>619.58000000000004</v>
-      </c>
-      <c r="F44" s="6" t="s">
+        <v>619.58399999999995</v>
+      </c>
+      <c r="F44" s="12" t="s">
         <v>11</v>
       </c>
       <c r="G44" s="15"/>
     </row>
     <row r="45" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="6">
-        <v>33</v>
+      <c r="B45" s="12">
+        <v>46</v>
       </c>
       <c r="C45" s="1">
-        <v>7511876.8300000001</v>
+        <v>7511875.5099999998</v>
       </c>
       <c r="D45" s="9">
-        <v>4692123.2389000002</v>
+        <v>4692118.3735999996</v>
       </c>
       <c r="E45" s="9">
         <v>619.59</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="F45" s="12" t="s">
         <v>11</v>
       </c>
       <c r="G45" s="15"/>
     </row>
     <row r="46" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="6">
-        <v>34</v>
+      <c r="B46" s="12">
+        <v>47</v>
       </c>
       <c r="C46" s="1">
-        <v>7511876.6040000003</v>
+        <v>7511875.7685000002</v>
       </c>
       <c r="D46" s="9">
-        <v>4692121.0130000003</v>
+        <v>4692121.0855999999</v>
       </c>
       <c r="E46" s="9">
-        <v>622.46600000000001</v>
-      </c>
-      <c r="F46" s="6" t="s">
+        <v>619.59</v>
+      </c>
+      <c r="F46" s="12" t="s">
         <v>11</v>
       </c>
       <c r="G46" s="15"/>
     </row>
     <row r="47" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="6">
-        <v>35</v>
+      <c r="B47" s="12">
+        <v>48</v>
       </c>
       <c r="C47" s="1">
-        <v>7511875.7060000002</v>
+        <v>7511875.8830000004</v>
       </c>
       <c r="D47" s="9">
-        <v>4692121.091</v>
+        <v>4692121.8990000002</v>
       </c>
       <c r="E47" s="9">
-        <v>619.57500000000005</v>
-      </c>
-      <c r="F47" s="6" t="s">
+        <v>619.577</v>
+      </c>
+      <c r="F47" s="12" t="s">
         <v>11</v>
       </c>
       <c r="G47" s="15"/>
     </row>
     <row r="48" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="12">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C48" s="1">
-        <v>7511875.1720000003</v>
+        <v>7511876.3048999999</v>
       </c>
       <c r="D48" s="9">
-        <v>4692120.2690000003</v>
+        <v>4692123.2879999997</v>
       </c>
       <c r="E48" s="9">
-        <v>619.58600000000001</v>
+        <v>619.59</v>
       </c>
       <c r="F48" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G48" s="15"/>
-    </row>
-    <row r="49" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="12">
-        <v>37</v>
-      </c>
-      <c r="C49" s="1">
-        <v>7511875.0939999996</v>
-      </c>
-      <c r="D49" s="9">
-        <v>4692119.3109999998</v>
-      </c>
-      <c r="E49" s="9">
-        <v>619.58399999999995</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" s="15"/>
-    </row>
-    <row r="50" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="12">
-        <v>38</v>
-      </c>
-      <c r="C50" s="1">
-        <v>7511875.4614000004</v>
-      </c>
-      <c r="D50" s="9">
-        <v>4692118.3782000002</v>
-      </c>
-      <c r="E50" s="9">
-        <v>619.59</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" s="15"/>
-    </row>
-    <row r="51" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="12">
-        <v>39</v>
-      </c>
-      <c r="C51" s="1">
-        <v>7511876.3606000002</v>
-      </c>
-      <c r="D51" s="9">
-        <v>4692118.2939999998</v>
-      </c>
-      <c r="E51" s="9">
-        <v>619.59</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" s="15"/>
-    </row>
-    <row r="52" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="12">
-        <v>41</v>
-      </c>
-      <c r="C52" s="1">
-        <v>7511876.1749999998</v>
-      </c>
-      <c r="D52" s="9">
-        <v>4692116.0829999996</v>
-      </c>
-      <c r="E52" s="9">
-        <v>621.16300000000001</v>
-      </c>
-      <c r="F52" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" s="15"/>
-    </row>
-    <row r="53" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="12">
-        <v>42</v>
-      </c>
-      <c r="C53" s="1">
-        <v>7511875.5580000002</v>
-      </c>
-      <c r="D53" s="9">
-        <v>4692116.1270000003</v>
-      </c>
-      <c r="E53" s="9">
-        <v>619.577</v>
-      </c>
-      <c r="F53" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" s="15"/>
-    </row>
-    <row r="54" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="12">
-        <v>43</v>
-      </c>
-      <c r="C54" s="1">
-        <v>7511875.4289999995</v>
-      </c>
-      <c r="D54" s="9">
-        <v>4692114.6179999998</v>
-      </c>
-      <c r="E54" s="9">
-        <v>619.59</v>
-      </c>
-      <c r="F54" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" s="15"/>
-    </row>
-    <row r="55" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="12">
-        <v>44</v>
-      </c>
-      <c r="C55" s="1">
-        <v>7511875.6360999998</v>
-      </c>
-      <c r="D55" s="9">
-        <v>4692116.1213999996</v>
-      </c>
-      <c r="E55" s="9">
-        <v>619.59</v>
-      </c>
-      <c r="F55" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" s="15"/>
-    </row>
-    <row r="56" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="12">
-        <v>45</v>
-      </c>
-      <c r="C56" s="1">
-        <v>7511875.5</v>
-      </c>
-      <c r="D56" s="9">
-        <v>4692117.2120000003</v>
-      </c>
-      <c r="E56" s="9">
-        <v>619.58399999999995</v>
-      </c>
-      <c r="F56" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" s="15"/>
-    </row>
-    <row r="57" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="12">
-        <v>46</v>
-      </c>
-      <c r="C57" s="1">
-        <v>7511875.5099999998</v>
-      </c>
-      <c r="D57" s="9">
-        <v>4692118.3735999996</v>
-      </c>
-      <c r="E57" s="9">
-        <v>619.59</v>
-      </c>
-      <c r="F57" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" s="15"/>
-    </row>
-    <row r="58" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="12">
-        <v>47</v>
-      </c>
-      <c r="C58" s="1">
-        <v>7511875.7685000002</v>
-      </c>
-      <c r="D58" s="9">
-        <v>4692121.0855999999</v>
-      </c>
-      <c r="E58" s="9">
-        <v>619.59</v>
-      </c>
-      <c r="F58" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" s="15"/>
-    </row>
-    <row r="59" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="12">
-        <v>48</v>
-      </c>
-      <c r="C59" s="1">
-        <v>7511875.8830000004</v>
-      </c>
-      <c r="D59" s="9">
-        <v>4692121.8990000002</v>
-      </c>
-      <c r="E59" s="9">
-        <v>619.577</v>
-      </c>
-      <c r="F59" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" s="15"/>
-    </row>
-    <row r="60" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="12">
-        <v>49</v>
-      </c>
-      <c r="C60" s="1">
-        <v>7511876.3048999999</v>
-      </c>
-      <c r="D60" s="9">
-        <v>4692123.2879999997</v>
-      </c>
-      <c r="E60" s="9">
-        <v>619.59</v>
-      </c>
-      <c r="F60" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" s="16"/>
-    </row>
-    <row r="61" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="3:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="3:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="3:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="3:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="3:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" spans="3:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="3:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" spans="3:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="3:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E89" s="8"/>
-    </row>
-    <row r="90" spans="3:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="3:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="3:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="3:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C93" s="8"/>
-    </row>
-    <row r="94" spans="3:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="3:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="3:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="G48" s="16"/>
+    </row>
+    <row r="49" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E77" s="8"/>
+    </row>
+    <row r="78" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="3:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C81" s="8"/>
+    </row>
+    <row r="82" spans="3:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="3:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="3:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="3:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="3:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="3:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="3:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="3:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" spans="3:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="3:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="3:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="3:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="3:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="3:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="3:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="97" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="98" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="99" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1326,67 +1411,55 @@
     <row r="107" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="108" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="109" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" spans="2:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" spans="2:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" spans="2:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" spans="2:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" spans="2:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" spans="2:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" spans="2:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" spans="2:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" spans="2:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B125" s="2" t="s">
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B113" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="C113" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D125" s="2" t="s">
+      <c r="D113" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B126" s="13" t="s">
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B114" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C126" s="13">
+      <c r="C114" s="13">
         <v>54.68</v>
       </c>
-      <c r="D126" s="13" t="s">
+      <c r="D114" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B127" s="13"/>
-      <c r="C127" s="13"/>
-      <c r="D127" s="13"/>
-    </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B128" s="13"/>
-      <c r="C128" s="13"/>
-      <c r="D128" s="13"/>
-    </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B129" s="13"/>
-      <c r="C129" s="13"/>
-      <c r="D129" s="13"/>
-    </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B130" s="13"/>
-      <c r="C130" s="13"/>
-      <c r="D130" s="13"/>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B115" s="13"/>
+      <c r="C115" s="13"/>
+      <c r="D115" s="13"/>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B116" s="13"/>
+      <c r="C116" s="13"/>
+      <c r="D116" s="13"/>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B117" s="13"/>
+      <c r="C117" s="13"/>
+      <c r="D117" s="13"/>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B118" s="13"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B126:B130"/>
-    <mergeCell ref="C126:C130"/>
-    <mergeCell ref="D126:D130"/>
-    <mergeCell ref="G31:G38"/>
-    <mergeCell ref="G41:G60"/>
+    <mergeCell ref="B114:B118"/>
+    <mergeCell ref="C114:C118"/>
+    <mergeCell ref="D114:D118"/>
+    <mergeCell ref="G29:G48"/>
+    <mergeCell ref="G13:G25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
